--- a/python3_api_framework/TestDatas/api_qcd.xlsx
+++ b/python3_api_framework/TestDatas/api_qcd.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23280" windowHeight="10950"/>
+    <workbookView windowWidth="28695" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="case_data" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
   <si>
     <t>id</t>
   </si>
@@ -55,34 +55,88 @@
     <t>http://119.23.241.154:8080/futureloan/mvc/api/member/register</t>
   </si>
   <si>
-    <t>{'mobilephone':'18301565500','pwd':'123456','regname':''}</t>
+    <t>{'mobilephone':'18301565570','pwd':'123456','regname':''}</t>
+  </si>
+  <si>
+    <t>{"status":1,"code":"10001","data":null,"msg":"注册成功"}</t>
+  </si>
+  <si>
+    <t>成功注册-有昵称</t>
+  </si>
+  <si>
+    <t>{'mobilephone':'18301565571','pwd':'123456','regname':'星空'}</t>
+  </si>
+  <si>
+    <t>用户名为空</t>
+  </si>
+  <si>
+    <t>{'mobilephone':'','pwd':'123456','regname':'星空'}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20103","data":null,"msg":"手机号不能为空"}</t>
+  </si>
+  <si>
+    <t>用户名长度小于6</t>
+  </si>
+  <si>
+    <t>{'mobilephone':'123456','pwd':'123456','regname':'星空'}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20108","data":null,"msg":"密码长度必须6~18"}</t>
+  </si>
+  <si>
+    <t>用户名长度大于18</t>
+  </si>
+  <si>
+    <t>{'mobilephone':'1234567891234567894','pwd':'123456','regname':'星空'}</t>
+  </si>
+  <si>
+    <t>手机号码已经被注册</t>
   </si>
   <si>
     <t>{"status":0,"code":"20110","data":null,"msg":"手机号码已被注册"}</t>
   </si>
   <si>
-    <t>成功注册-有昵称</t>
-  </si>
-  <si>
-    <t>http://119.23.241.154:8081/futureloan/mvc/api/member/register</t>
-  </si>
-  <si>
-    <t>{'mobilephone':'18301565501','pwd':'123456','regname':'星空'}</t>
-  </si>
-  <si>
-    <t>{"status":1,"code":"10001","data":null,"msg":"注册成功"}</t>
-  </si>
-  <si>
-    <t>用户名为空</t>
-  </si>
-  <si>
-    <t>http://119.23.241.154:8082/futureloan/mvc/api/member/register</t>
-  </si>
-  <si>
-    <t>{'mobilephone':'','pwd':'123456','regname':'星空'}</t>
-  </si>
-  <si>
-    <t>{"status":0,"code":"20103","data":null,"msg":"手机号不能为空"}</t>
+    <t>登录</t>
+  </si>
+  <si>
+    <t>登录成功</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>'http://119.23.241.154:8080/futureloan/mvc/api/member/login'</t>
+  </si>
+  <si>
+    <t>{'mobilephone':'18301565570','pwd':'123456'}</t>
+  </si>
+  <si>
+    <t>{"status":1,"code":"10001","data":null,"msg":"登录成功"}</t>
+  </si>
+  <si>
+    <t>密码错误</t>
+  </si>
+  <si>
+    <t>{"status":0"code":"20111","data":null,"msg":"用户名或密码错误"}</t>
+  </si>
+  <si>
+    <t>用户名错误</t>
+  </si>
+  <si>
+    <t>{"status":0"code":"20103","data":null,"msg":"手机号不能为空"}</t>
+  </si>
+  <si>
+    <t>密码为空</t>
+  </si>
+  <si>
+    <t>{"status":0"code":"20103","data":null,"msg":"密码不能为空"}</t>
+  </si>
+  <si>
+    <t>充值</t>
+  </si>
+  <si>
+    <t>http://119.23.241.154:8080/futureloan/mvc/api/member/recharge</t>
   </si>
 </sst>
 </file>
@@ -90,10 +144,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -119,6 +173,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -127,44 +204,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -186,17 +233,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,6 +255,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -240,13 +301,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -257,187 +311,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -448,6 +502,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -466,36 +535,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -510,6 +549,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,10 +610,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -568,19 +622,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -589,116 +643,116 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -707,9 +761,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1030,17 +1081,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="16.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.25" style="1" customWidth="1"/>
     <col min="4" max="4" width="18.375" style="1" customWidth="1"/>
     <col min="5" max="5" width="15.875" style="1" customWidth="1"/>
     <col min="6" max="6" width="27" style="1" customWidth="1"/>
@@ -1091,7 +1142,7 @@
       <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -1115,14 +1166,14 @@
       <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="H3" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" ht="40.5" spans="1:8">
@@ -1131,7 +1182,7 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>10</v>
@@ -1139,24 +1190,245 @@
       <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" ht="40.5" spans="1:8">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>22</v>
       </c>
     </row>
+    <row r="6" ht="40.5" spans="1:8">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" ht="40.5" spans="1:8">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" ht="40.5" spans="1:8">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" ht="40.5" spans="1:8">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" ht="40.5" spans="1:8">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" ht="40.5" spans="1:8">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" ht="40.5" spans="1:8">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" ht="40.5" spans="2:6">
+      <c r="B13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" ht="40.5" spans="6:6">
+      <c r="F14" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" ht="40.5" spans="6:6">
+      <c r="F15" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" ht="40.5" spans="6:6">
+      <c r="F16" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:B4"/>
+  <mergeCells count="2">
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="B8:B12"/>
   </mergeCells>
   <hyperlinks>
+    <hyperlink ref="F3" r:id="rId1" display="http://119.23.241.154:8080/futureloan/mvc/api/member/register" tooltip="http://119.23.241.154:8080/futureloan/mvc/api/member/register"/>
+    <hyperlink ref="F4" r:id="rId1" display="http://119.23.241.154:8080/futureloan/mvc/api/member/register" tooltip="http://119.23.241.154:8080/futureloan/mvc/api/member/register"/>
     <hyperlink ref="F2" r:id="rId1" display="http://119.23.241.154:8080/futureloan/mvc/api/member/register" tooltip="http://119.23.241.154:8080/futureloan/mvc/api/member/register"/>
-    <hyperlink ref="F3" r:id="rId1" display="http://119.23.241.154:8081/futureloan/mvc/api/member/register" tooltip="http://119.23.241.154:8080/futureloan/mvc/api/member/register"/>
-    <hyperlink ref="F4" r:id="rId1" display="http://119.23.241.154:8082/futureloan/mvc/api/member/register" tooltip="http://119.23.241.154:8080/futureloan/mvc/api/member/register"/>
+    <hyperlink ref="F5" r:id="rId1" display="http://119.23.241.154:8080/futureloan/mvc/api/member/register" tooltip="http://119.23.241.154:8080/futureloan/mvc/api/member/register"/>
+    <hyperlink ref="F6" r:id="rId1" display="http://119.23.241.154:8080/futureloan/mvc/api/member/register" tooltip="http://119.23.241.154:8080/futureloan/mvc/api/member/register"/>
+    <hyperlink ref="F7" r:id="rId1" display="http://119.23.241.154:8080/futureloan/mvc/api/member/register" tooltip="http://119.23.241.154:8080/futureloan/mvc/api/member/register"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/python3_api_framework/TestDatas/api_qcd.xlsx
+++ b/python3_api_framework/TestDatas/api_qcd.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12630"/>
+    <workbookView windowWidth="23280" windowHeight="10950"/>
   </bookViews>
   <sheets>
     <sheet name="case_data" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43">
   <si>
     <t>id</t>
   </si>
@@ -106,7 +106,7 @@
     <t>login</t>
   </si>
   <si>
-    <t>'http://119.23.241.154:8080/futureloan/mvc/api/member/login'</t>
+    <t>http://119.23.241.154:8080/futureloan/mvc/api/member/login</t>
   </si>
   <si>
     <t>{'mobilephone':'18301565570','pwd':'123456'}</t>
@@ -118,25 +118,31 @@
     <t>密码错误</t>
   </si>
   <si>
+    <t>{'mobilephone':'18301565570','pwd':'12345'}</t>
+  </si>
+  <si>
     <t>{"status":0"code":"20111","data":null,"msg":"用户名或密码错误"}</t>
   </si>
   <si>
     <t>用户名错误</t>
   </si>
   <si>
+    <t>{'mobilephone':'18301565560','pwd':'123456'}</t>
+  </si>
+  <si>
+    <t>{'mobilephone':'','pwd':'123456'}</t>
+  </si>
+  <si>
     <t>{"status":0"code":"20103","data":null,"msg":"手机号不能为空"}</t>
   </si>
   <si>
     <t>密码为空</t>
   </si>
   <si>
+    <t>{'mobilephone':'18301565570','pwd':''}</t>
+  </si>
+  <si>
     <t>{"status":0"code":"20103","data":null,"msg":"密码不能为空"}</t>
-  </si>
-  <si>
-    <t>充值</t>
-  </si>
-  <si>
-    <t>http://119.23.241.154:8080/futureloan/mvc/api/member/recharge</t>
   </si>
 </sst>
 </file>
@@ -144,10 +150,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -158,6 +164,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -167,59 +219,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,6 +264,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -241,6 +280,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -248,55 +301,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -317,18 +323,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -341,6 +365,66 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -353,145 +437,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -520,35 +526,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -589,16 +586,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -610,10 +616,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -622,16 +628,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -640,115 +646,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1081,10 +1087,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1316,10 +1322,10 @@
         <v>30</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" ht="40.5" spans="1:8">
@@ -1328,7 +1334,7 @@
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>29</v>
@@ -1340,10 +1346,10 @@
         <v>30</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" ht="40.5" spans="1:8">
@@ -1364,10 +1370,10 @@
         <v>30</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" ht="40.5" spans="1:8">
@@ -1376,7 +1382,7 @@
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>29</v>
@@ -1388,33 +1394,10 @@
         <v>30</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" ht="40.5" spans="2:6">
-      <c r="B13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" ht="40.5" spans="6:6">
-      <c r="F14" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" ht="40.5" spans="6:6">
-      <c r="F15" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" ht="40.5" spans="6:6">
-      <c r="F16" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1429,6 +1412,11 @@
     <hyperlink ref="F5" r:id="rId1" display="http://119.23.241.154:8080/futureloan/mvc/api/member/register" tooltip="http://119.23.241.154:8080/futureloan/mvc/api/member/register"/>
     <hyperlink ref="F6" r:id="rId1" display="http://119.23.241.154:8080/futureloan/mvc/api/member/register" tooltip="http://119.23.241.154:8080/futureloan/mvc/api/member/register"/>
     <hyperlink ref="F7" r:id="rId1" display="http://119.23.241.154:8080/futureloan/mvc/api/member/register" tooltip="http://119.23.241.154:8080/futureloan/mvc/api/member/register"/>
+    <hyperlink ref="F8" r:id="rId2" display="http://119.23.241.154:8080/futureloan/mvc/api/member/login"/>
+    <hyperlink ref="F9" r:id="rId2" display="http://119.23.241.154:8080/futureloan/mvc/api/member/login"/>
+    <hyperlink ref="F10" r:id="rId2" display="http://119.23.241.154:8080/futureloan/mvc/api/member/login"/>
+    <hyperlink ref="F11" r:id="rId2" display="http://119.23.241.154:8080/futureloan/mvc/api/member/login"/>
+    <hyperlink ref="F12" r:id="rId2" display="http://119.23.241.154:8080/futureloan/mvc/api/member/login"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/python3_api_framework/TestDatas/api_qcd.xlsx
+++ b/python3_api_framework/TestDatas/api_qcd.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" windowHeight="13050" windowWidth="28080"/>
+    <workbookView activeTab="0" windowHeight="13050" windowWidth="28695"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="case_data" sheetId="1" state="visible" r:id="rId1"/>
@@ -242,7 +242,7 @@
     <t>$init_phone</t>
   </si>
   <si>
-    <t>18301565638</t>
+    <t>18301565656</t>
   </si>
   <si>
     <t>$phone</t>
@@ -279,6 +279,45 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color rgb="FF800080"/>
       <sz val="11"/>
       <u val="single"/>
@@ -301,22 +340,33 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FFFF0000"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF3F3F76"/>
+      <b val="1"/>
+      <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -336,9 +386,22 @@
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -350,69 +413,6 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -423,19 +423,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -447,19 +471,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,139 +603,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -614,36 +614,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -665,17 +635,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -701,16 +692,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -718,53 +718,53 @@
   <cellStyleXfs count="49">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="164"/>
-    <xf borderId="0" fillId="14" fontId="1" numFmtId="0"/>
-    <xf borderId="1" fillId="15" fontId="6" numFmtId="0"/>
+    <xf borderId="0" fillId="26" fontId="1" numFmtId="0"/>
+    <xf borderId="7" fillId="23" fontId="16" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="165"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="166"/>
-    <xf borderId="0" fillId="12" fontId="1" numFmtId="0"/>
-    <xf borderId="0" fillId="5" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="8" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="9" fontId="8" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="167"/>
-    <xf borderId="0" fillId="17" fontId="4" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0"/>
+    <xf borderId="0" fillId="22" fontId="9" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="2" fillId="24" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="23" fontId="4" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0"/>
+    <xf borderId="4" fillId="15" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="28" fontId="9" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0"/>
-    <xf borderId="5" fillId="0" fontId="16" numFmtId="0"/>
-    <xf borderId="5" fillId="0" fontId="18" numFmtId="0"/>
-    <xf borderId="0" fillId="10" fontId="4" numFmtId="0"/>
-    <xf borderId="7" fillId="0" fontId="10" numFmtId="0"/>
-    <xf borderId="0" fillId="27" fontId="4" numFmtId="0"/>
-    <xf borderId="8" fillId="25" fontId="19" numFmtId="0"/>
-    <xf borderId="1" fillId="25" fontId="11" numFmtId="0"/>
-    <xf borderId="3" fillId="26" fontId="13" numFmtId="0"/>
-    <xf borderId="0" fillId="20" fontId="1" numFmtId="0"/>
-    <xf borderId="0" fillId="6" fontId="4" numFmtId="0"/>
-    <xf borderId="4" fillId="0" fontId="15" numFmtId="0"/>
-    <xf borderId="6" fillId="0" fontId="17" numFmtId="0"/>
-    <xf borderId="0" fillId="19" fontId="7" numFmtId="0"/>
-    <xf borderId="0" fillId="22" fontId="9" numFmtId="0"/>
-    <xf borderId="0" fillId="13" fontId="1" numFmtId="0"/>
-    <xf borderId="0" fillId="8" fontId="4" numFmtId="0"/>
-    <xf borderId="0" fillId="9" fontId="1" numFmtId="0"/>
+    <xf borderId="2" fillId="0" fontId="11" numFmtId="0"/>
+    <xf borderId="2" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="21" fontId="9" numFmtId="0"/>
+    <xf borderId="6" fillId="0" fontId="6" numFmtId="0"/>
+    <xf borderId="0" fillId="20" fontId="9" numFmtId="0"/>
+    <xf borderId="3" fillId="14" fontId="10" numFmtId="0"/>
+    <xf borderId="7" fillId="14" fontId="19" numFmtId="0"/>
+    <xf borderId="1" fillId="6" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="25" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="13" fontId="9" numFmtId="0"/>
+    <xf borderId="8" fillId="0" fontId="18" numFmtId="0"/>
+    <xf borderId="5" fillId="0" fontId="12" numFmtId="0"/>
+    <xf borderId="0" fillId="24" fontId="17" numFmtId="0"/>
+    <xf borderId="0" fillId="19" fontId="15" numFmtId="0"/>
+    <xf borderId="0" fillId="32" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="12" fontId="9" numFmtId="0"/>
+    <xf borderId="0" fillId="31" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="30" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="17" fontId="9" numFmtId="0"/>
+    <xf borderId="0" fillId="11" fontId="9" numFmtId="0"/>
+    <xf borderId="0" fillId="29" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="10" fontId="9" numFmtId="0"/>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0"/>
-    <xf borderId="0" fillId="18" fontId="1" numFmtId="0"/>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0"/>
-    <xf borderId="0" fillId="7" fontId="4" numFmtId="0"/>
-    <xf borderId="0" fillId="29" fontId="4" numFmtId="0"/>
-    <xf borderId="0" fillId="30" fontId="1" numFmtId="0"/>
-    <xf borderId="0" fillId="31" fontId="1" numFmtId="0"/>
-    <xf borderId="0" fillId="32" fontId="4" numFmtId="0"/>
-    <xf borderId="0" fillId="11" fontId="1" numFmtId="0"/>
-    <xf borderId="0" fillId="16" fontId="4" numFmtId="0"/>
-    <xf borderId="0" fillId="28" fontId="4" numFmtId="0"/>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0"/>
-    <xf borderId="0" fillId="21" fontId="4" numFmtId="0"/>
+    <xf borderId="0" fillId="27" fontId="9" numFmtId="0"/>
+    <xf borderId="0" fillId="16" fontId="9" numFmtId="0"/>
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="18" fontId="9" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1096,8 +1096,8 @@
   </sheetPr>
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>

--- a/python3_api_framework/TestDatas/api_qcd.xlsx
+++ b/python3_api_framework/TestDatas/api_qcd.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" windowHeight="13050" windowWidth="28695"/>
+    <workbookView activeTab="0" windowHeight="10950" windowWidth="23280"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="case_data" sheetId="1" state="visible" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="103">
   <si>
     <t>id</t>
   </si>
@@ -50,7 +50,7 @@
     <t>成功注册-无昵称</t>
   </si>
   <si>
-    <t>register</t>
+    <t>register_none_nickname_success</t>
   </si>
   <si>
     <t>get</t>
@@ -68,12 +68,18 @@
     <t>成功注册-有昵称</t>
   </si>
   <si>
+    <t>register_nickname_success</t>
+  </si>
+  <si>
     <t>{'mobilephone':'$phone','pwd':'123456','regname':'星空'}</t>
   </si>
   <si>
     <t>用户名为空</t>
   </si>
   <si>
+    <t>register_name_none</t>
+  </si>
+  <si>
     <t>{'mobilephone':'','pwd':'123456','regname':'星空'}</t>
   </si>
   <si>
@@ -83,6 +89,9 @@
     <t>用户名长度小于6</t>
   </si>
   <si>
+    <t>register_name_Less</t>
+  </si>
+  <si>
     <t>{'mobilephone':'123456','pwd':'123456','regname':'星空'}</t>
   </si>
   <si>
@@ -92,12 +101,18 @@
     <t>用户名长度大于18</t>
   </si>
   <si>
+    <t>register_name_redundant</t>
+  </si>
+  <si>
     <t>{'mobilephone':'1234567891234567894','pwd':'123456','regname':'星空'}</t>
   </si>
   <si>
     <t>手机号码已经被注册</t>
   </si>
   <si>
+    <t>register_repeat</t>
+  </si>
+  <si>
     <t>{"status":0,"code":"20110","data":null,"msg":"手机号码已被注册"}</t>
   </si>
   <si>
@@ -107,7 +122,7 @@
     <t>登录成功</t>
   </si>
   <si>
-    <t>login</t>
+    <t>login_success</t>
   </si>
   <si>
     <t>http://119.23.241.154:8080/futureloan/mvc/api/member/login</t>
@@ -122,6 +137,9 @@
     <t>密码错误</t>
   </si>
   <si>
+    <t>login_password_error</t>
+  </si>
+  <si>
     <t>{'mobilephone':'$init_phone','pwd':'12345'}</t>
   </si>
   <si>
@@ -131,15 +149,24 @@
     <t>用户名错误</t>
   </si>
   <si>
+    <t>login_name_error</t>
+  </si>
+  <si>
     <t>{'mobilephone':'18301565560','pwd':'123456'}</t>
   </si>
   <si>
+    <t>login_name_none</t>
+  </si>
+  <si>
     <t>{'mobilephone':'','pwd':'123456'}</t>
   </si>
   <si>
     <t>密码为空</t>
   </si>
   <si>
+    <t>login_password_none</t>
+  </si>
+  <si>
     <t>{'mobilephone':'$init_phone','pwd':''}</t>
   </si>
   <si>
@@ -152,7 +179,7 @@
     <t>充值成功</t>
   </si>
   <si>
-    <t>recharge</t>
+    <t>recharge_success</t>
   </si>
   <si>
     <t>post</t>
@@ -170,12 +197,18 @@
     <t>手机号码不存在</t>
   </si>
   <si>
+    <t>recharge_phone_none</t>
+  </si>
+  <si>
     <t>{'mobilephone':'123456','amount':'100'}</t>
   </si>
   <si>
     <t>金额为空</t>
   </si>
   <si>
+    <t>recharge_amount_none</t>
+  </si>
+  <si>
     <t>{'mobilephone':'$init_phone','amount':''}</t>
   </si>
   <si>
@@ -185,6 +218,9 @@
     <t>充值金额为一位小数</t>
   </si>
   <si>
+    <t>recharge_amount_decimal</t>
+  </si>
+  <si>
     <t>{'mobilephone':'$init_phone','amount':'0.1'}</t>
   </si>
   <si>
@@ -212,6 +248,9 @@
     <t>充值金额小于0</t>
   </si>
   <si>
+    <t>recharge_amount_0</t>
+  </si>
+  <si>
     <t>{'mobilephone':'$init_phone','amount':'-1'}</t>
   </si>
   <si>
@@ -221,18 +260,54 @@
     <t>充值金额小于50万</t>
   </si>
   <si>
+    <t>recharge_amount_500000</t>
+  </si>
+  <si>
     <t>{'mobilephone':'$init_phone','amount':'500001'}</t>
   </si>
   <si>
     <t>充值金额非数字</t>
   </si>
   <si>
+    <t>recharge_amount_error</t>
+  </si>
+  <si>
     <t>{'mobilephone':'$init_phone','amount':'ss'}</t>
   </si>
   <si>
     <t>{"status":0,"code":"20118","data":null,"msg":"请输入数字"}</t>
   </si>
   <si>
+    <t>取现</t>
+  </si>
+  <si>
+    <t>取现成功</t>
+  </si>
+  <si>
+    <t>withdraw_success</t>
+  </si>
+  <si>
+    <t>http://119.23.241.154:8080/futureloan/mvc/api/member/withdraw</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20102","data":null,"msg":"服务器异常"}</t>
+  </si>
+  <si>
+    <t>获取列表</t>
+  </si>
+  <si>
+    <t>获取成功</t>
+  </si>
+  <si>
+    <t>list_success</t>
+  </si>
+  <si>
+    <t>http://119.23.241.154:8080/futureloan/mvc/api/member/list</t>
+  </si>
+  <si>
+    <t>获取用户列表成功</t>
+  </si>
+  <si>
     <t>key</t>
   </si>
   <si>
@@ -242,7 +317,7 @@
     <t>$init_phone</t>
   </si>
   <si>
-    <t>18301565656</t>
+    <t>18301565737</t>
   </si>
   <si>
     <t>$phone</t>
@@ -272,7 +347,114 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -286,71 +468,9 @@
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -363,56 +483,11 @@
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
       <charset val="0"/>
       <color rgb="FF006100"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -429,6 +504,162 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -441,169 +672,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -614,6 +689,69 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -635,38 +773,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -681,90 +789,57 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="164"/>
-    <xf borderId="0" fillId="26" fontId="1" numFmtId="0"/>
-    <xf borderId="7" fillId="23" fontId="16" numFmtId="0"/>
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="0"/>
+    <xf borderId="1" fillId="8" fontId="5" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="165"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="166"/>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="0"/>
-    <xf borderId="0" fillId="9" fontId="8" numFmtId="0"/>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="6" fontId="3" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="167"/>
-    <xf borderId="0" fillId="22" fontId="9" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0"/>
+    <xf borderId="0" fillId="11" fontId="6" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0"/>
-    <xf borderId="4" fillId="15" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="28" fontId="9" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0"/>
-    <xf borderId="2" fillId="0" fontId="11" numFmtId="0"/>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="21" fontId="9" numFmtId="0"/>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="0"/>
-    <xf borderId="0" fillId="20" fontId="9" numFmtId="0"/>
-    <xf borderId="3" fillId="14" fontId="10" numFmtId="0"/>
-    <xf borderId="7" fillId="14" fontId="19" numFmtId="0"/>
-    <xf borderId="1" fillId="6" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="25" fontId="1" numFmtId="0"/>
-    <xf borderId="0" fillId="13" fontId="9" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="2" fillId="12" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="15" fontId="6" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0"/>
+    <xf borderId="3" fillId="0" fontId="12" numFmtId="0"/>
+    <xf borderId="3" fillId="0" fontId="13" numFmtId="0"/>
+    <xf borderId="0" fillId="10" fontId="6" numFmtId="0"/>
+    <xf borderId="4" fillId="0" fontId="8" numFmtId="0"/>
+    <xf borderId="0" fillId="14" fontId="6" numFmtId="0"/>
+    <xf borderId="5" fillId="17" fontId="14" numFmtId="0"/>
+    <xf borderId="1" fillId="17" fontId="15" numFmtId="0"/>
+    <xf borderId="6" fillId="20" fontId="16" numFmtId="0"/>
+    <xf borderId="0" fillId="23" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="26" fontId="6" numFmtId="0"/>
+    <xf borderId="7" fillId="0" fontId="17" numFmtId="0"/>
     <xf borderId="8" fillId="0" fontId="18" numFmtId="0"/>
-    <xf borderId="5" fillId="0" fontId="12" numFmtId="0"/>
-    <xf borderId="0" fillId="24" fontId="17" numFmtId="0"/>
-    <xf borderId="0" fillId="19" fontId="15" numFmtId="0"/>
-    <xf borderId="0" fillId="32" fontId="1" numFmtId="0"/>
-    <xf borderId="0" fillId="12" fontId="9" numFmtId="0"/>
-    <xf borderId="0" fillId="31" fontId="1" numFmtId="0"/>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0"/>
-    <xf borderId="0" fillId="30" fontId="1" numFmtId="0"/>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0"/>
-    <xf borderId="0" fillId="17" fontId="9" numFmtId="0"/>
-    <xf borderId="0" fillId="11" fontId="9" numFmtId="0"/>
-    <xf borderId="0" fillId="29" fontId="1" numFmtId="0"/>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0"/>
-    <xf borderId="0" fillId="10" fontId="9" numFmtId="0"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0"/>
-    <xf borderId="0" fillId="27" fontId="9" numFmtId="0"/>
-    <xf borderId="0" fillId="16" fontId="9" numFmtId="0"/>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="0"/>
-    <xf borderId="0" fillId="18" fontId="9" numFmtId="0"/>
+    <xf borderId="0" fillId="27" fontId="19" numFmtId="0"/>
+    <xf borderId="0" fillId="7" fontId="4" numFmtId="0"/>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="16" fontId="6" numFmtId="0"/>
+    <xf borderId="0" fillId="18" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="19" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="22" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="30" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="32" fontId="6" numFmtId="0"/>
+    <xf borderId="0" fillId="25" fontId="6" numFmtId="0"/>
+    <xf borderId="0" fillId="21" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="29" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="31" fontId="6" numFmtId="0"/>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="9" fontId="6" numFmtId="0"/>
+    <xf borderId="0" fillId="24" fontId="6" numFmtId="0"/>
+    <xf borderId="0" fillId="28" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="13" fontId="6" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1094,10 +1169,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
@@ -1179,7 +1254,7 @@
         <v>16</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>12</v>
@@ -1188,7 +1263,7 @@
         <v>13</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>15</v>
@@ -1202,10 +1277,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>12</v>
@@ -1214,10 +1289,10 @@
         <v>13</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I4" s="2" t="n">
         <v>0</v>
@@ -1228,10 +1303,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>12</v>
@@ -1240,10 +1315,10 @@
         <v>13</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I5" s="2" t="n">
         <v>0</v>
@@ -1254,10 +1329,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>12</v>
@@ -1266,10 +1341,10 @@
         <v>13</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I6" s="2" t="n">
         <v>0</v>
@@ -1280,10 +1355,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>12</v>
@@ -1295,7 +1370,7 @@
         <v>14</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I7" s="2" t="n">
         <v>0</v>
@@ -1306,25 +1381,25 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="I8" s="2" t="n">
         <v>0</v>
@@ -1335,22 +1410,22 @@
         <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="I9" s="2" t="n">
         <v>0</v>
@@ -1361,22 +1436,22 @@
         <v>9</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="I10" s="2" t="n">
         <v>0</v>
@@ -1387,22 +1462,22 @@
         <v>10</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I11" s="2" t="n">
         <v>0</v>
@@ -1413,235 +1488,317 @@
         <v>11</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="I12" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="40.5" r="13" s="1" spans="1:9">
+      <c r="A13" s="2" t="n">
+        <v>12</v>
+      </c>
       <c r="B13" s="3" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="I13" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row customHeight="1" ht="40.5" r="14" s="1" spans="1:9">
+      <c r="A14" s="2" t="n">
+        <v>13</v>
+      </c>
       <c r="C14" s="2" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I14" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="40.5" r="15" s="1" spans="1:9">
+      <c r="A15" s="2" t="n">
+        <v>14</v>
+      </c>
       <c r="C15" s="2" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="I15" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="40.5" r="16" s="1" spans="1:9">
+      <c r="A16" s="2" t="n">
+        <v>15</v>
+      </c>
       <c r="C16" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F16" s="2" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="I16" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row customHeight="1" ht="40.5" r="17" s="1" spans="1:9">
+      <c r="A17" s="2" t="n">
+        <v>16</v>
+      </c>
       <c r="C17" s="2" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="I17" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row customHeight="1" ht="40.5" r="18" s="1" spans="1:9">
+      <c r="A18" s="2" t="n">
+        <v>17</v>
+      </c>
       <c r="C18" s="2" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="I18" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="40.5" r="19" s="1" spans="1:9">
+      <c r="A19" s="2" t="n">
+        <v>18</v>
+      </c>
       <c r="C19" s="2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="I19" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="40.5" r="20" s="1" spans="1:9">
+      <c r="A20" s="2" t="n">
+        <v>19</v>
+      </c>
       <c r="C20" s="2" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="I20" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="40.5" r="21" s="1" spans="1:9">
+      <c r="A21" s="2" t="n">
+        <v>20</v>
+      </c>
       <c r="C21" s="2" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="I21" s="2" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="40.5" r="22" s="1" spans="1:9">
+      <c r="A22" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I22" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="40.5" r="23" s="1" spans="1:9">
+      <c r="A23" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I23" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1662,6 +1819,8 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://119.23.241.154:8080/futureloan/mvc/api/member/login" ref="F10" r:id="rId9"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://119.23.241.154:8080/futureloan/mvc/api/member/login" ref="F11" r:id="rId10"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://119.23.241.154:8080/futureloan/mvc/api/member/login" ref="F12" r:id="rId11"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://119.23.241.154:8080/futureloan/mvc/api/member/withdraw" ref="F22" tooltip="http://119.23.241.154:8080/futureloan/mvc/api/member/withdraw" r:id="rId12"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://119.23.241.154:8080/futureloan/mvc/api/member/list" ref="F23" tooltip="http://119.23.241.154:8080/futureloan/mvc/api/member/list" r:id="rId13"/>
   </hyperlinks>
   <pageMargins bottom="1" footer="0.511805555555556" header="0.511805555555556" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -1688,28 +1847,28 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="B1" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/python3_api_framework/TestDatas/api_qcd.xlsx
+++ b/python3_api_framework/TestDatas/api_qcd.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="23280" windowHeight="10950"/>
   </bookViews>
   <sheets>
     <sheet name="case_data" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109">
   <si>
     <t>id</t>
   </si>
@@ -176,6 +176,9 @@
     <t>{"status":0,"code":"20103","data":null,"msg":"密码不能为空"}</t>
   </si>
   <si>
+    <t>$user_id'=data.id</t>
+  </si>
+  <si>
     <t>充值</t>
   </si>
   <si>
@@ -309,6 +312,18 @@
   </si>
   <si>
     <t>获取用户列表成功</t>
+  </si>
+  <si>
+    <t>获取用户所有投资记录</t>
+  </si>
+  <si>
+    <t>getInvestsByMemberId</t>
+  </si>
+  <si>
+    <t>http://119.23.241.154:8080/futureloan/mvc/api/invest/getInvestsByMemberId</t>
+  </si>
+  <si>
+    <t>{'mobileId':'$user_id'}</t>
   </si>
   <si>
     <t>key</t>
@@ -334,10 +349,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -348,8 +363,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -357,7 +380,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -373,6 +396,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -394,14 +424,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -410,15 +432,44 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -434,37 +485,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -472,21 +493,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -501,187 +516,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -692,60 +707,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -764,7 +725,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -787,8 +748,62 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -796,55 +811,55 @@
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="7"/>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="7"/>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4"/>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6"/>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3"/>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="7"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5"/>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="5"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="3"/>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="8"/>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -854,6 +869,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1174,10 +1193,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1195,7 +1214,7 @@
     <col min="11" max="16384" width="9" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" spans="1:10">
+    <row r="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1493,7 +1512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" ht="40.5" customHeight="1" spans="1:9">
+    <row r="12" ht="40.5" customHeight="1" spans="1:10">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1517,6 +1536,9 @@
       </c>
       <c r="I12" s="2">
         <v>0</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="13" ht="40.5" customHeight="1" spans="1:9">
@@ -1524,25 +1546,25 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" s="2" t="s">
         <v>57</v>
       </c>
+      <c r="F13" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="G13" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I13" s="2">
         <v>1</v>
@@ -1553,19 +1575,19 @@
         <v>13</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>27</v>
@@ -1579,22 +1601,22 @@
         <v>14</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I15" s="2">
         <v>0</v>
@@ -1605,22 +1627,22 @@
         <v>15</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I16" s="2">
         <v>1</v>
@@ -1631,22 +1653,22 @@
         <v>16</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I17" s="2">
         <v>1</v>
@@ -1657,22 +1679,22 @@
         <v>17</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I18" s="2">
         <v>0</v>
@@ -1683,22 +1705,22 @@
         <v>18</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I19" s="2">
         <v>0</v>
@@ -1709,22 +1731,22 @@
         <v>19</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H20" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="I20" s="2">
         <v>0</v>
@@ -1735,22 +1757,22 @@
         <v>20</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I21" s="2">
         <v>0</v>
@@ -1761,25 +1783,25 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I22" s="2">
         <v>0</v>
@@ -1790,25 +1812,42 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I23" s="2">
         <v>1</v>
+      </c>
+    </row>
+    <row r="24" ht="40.5" spans="1:7">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1828,9 +1867,11 @@
     <hyperlink ref="F9" r:id="rId2" display="http://119.23.241.154:8080/futureloan/mvc/api/member/login"/>
     <hyperlink ref="F10" r:id="rId2" display="http://119.23.241.154:8080/futureloan/mvc/api/member/login"/>
     <hyperlink ref="F11" r:id="rId2" display="http://119.23.241.154:8080/futureloan/mvc/api/member/login"/>
-    <hyperlink ref="F12" r:id="rId2" display="http://119.23.241.154:8080/futureloan/mvc/api/member/login"/>
+    <hyperlink ref="F12" r:id="rId2" display="http://119.23.241.154:8080/futureloan/mvc/api/member/login" tooltip="http://119.23.241.154:8080/futureloan/mvc/api/member/login"/>
     <hyperlink ref="F22" r:id="rId3" display="http://119.23.241.154:8080/futureloan/mvc/api/member/withdraw" tooltip="http://119.23.241.154:8080/futureloan/mvc/api/member/withdraw"/>
     <hyperlink ref="F23" r:id="rId4" display="http://119.23.241.154:8080/futureloan/mvc/api/member/list" tooltip="http://119.23.241.154:8080/futureloan/mvc/api/member/list"/>
+    <hyperlink ref="F24" r:id="rId5" display="http://119.23.241.154:8080/futureloan/mvc/api/invest/getInvestsByMemberId" tooltip="http://119.23.241.154:8080/futureloan/mvc/api/invest/getInvestsByMemberId"/>
+    <hyperlink ref="F13" r:id="rId6" display="http://119.23.241.154:8080/futureloan/mvc/api/member/recharge"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -1855,28 +1896,28 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/python3_api_framework/TestDatas/api_qcd.xlsx
+++ b/python3_api_framework/TestDatas/api_qcd.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23280" windowHeight="10950"/>
+    <workbookView activeTab="0" windowHeight="10950" windowWidth="23280"/>
   </bookViews>
   <sheets>
-    <sheet name="case_data" sheetId="1" r:id="rId1"/>
-    <sheet name="init_data" sheetId="2" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="case_data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="init_data" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <definedNames/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="110">
   <si>
     <t>id</t>
   </si>
@@ -59,7 +59,7 @@
     <t>get</t>
   </si>
   <si>
-    <t>http://119.23.241.154:8080/futureloan/mvc/api/member/register</t>
+    <t>http://120.79.176.157:8080/futureloan/mvc/api/member/register</t>
   </si>
   <si>
     <t>{'mobilephone':'$init_phone','pwd':'123456','regname':''}</t>
@@ -128,7 +128,7 @@
     <t>login_success</t>
   </si>
   <si>
-    <t>http://119.23.241.154:8080/futureloan/mvc/api/member/login</t>
+    <t>http://120.79.176.157:8080/futureloan/mvc/api/member/login</t>
   </si>
   <si>
     <t>{'mobilephone':'$init_phone','pwd':'123456'}</t>
@@ -176,9 +176,6 @@
     <t>{"status":0,"code":"20103","data":null,"msg":"密码不能为空"}</t>
   </si>
   <si>
-    <t>$user_id'=data.id</t>
-  </si>
-  <si>
     <t>充值</t>
   </si>
   <si>
@@ -191,7 +188,7 @@
     <t>post</t>
   </si>
   <si>
-    <t>http://119.23.241.154:8080/futureloan/mvc/api/member/recharge</t>
+    <t>http://120.79.176.157:8080/futureloan/mvc/api/member/recharge</t>
   </si>
   <si>
     <t>{'mobilephone':'$init_phone','amount':'100'}</t>
@@ -200,6 +197,9 @@
     <t>leaveamount":"100.00"</t>
   </si>
   <si>
+    <t>$user_id=.*"id":(\d*).*</t>
+  </si>
+  <si>
     <t>手机号码不存在</t>
   </si>
   <si>
@@ -293,7 +293,7 @@
     <t>withdraw_success</t>
   </si>
   <si>
-    <t>http://119.23.241.154:8080/futureloan/mvc/api/member/withdraw</t>
+    <t>http://120.79.176.157:8080/futureloan/mvc/api/member/withdraw</t>
   </si>
   <si>
     <t>{"status":0,"code":"20102","data":null,"msg":"服务器异常"}</t>
@@ -308,22 +308,25 @@
     <t>list_success</t>
   </si>
   <si>
-    <t>http://119.23.241.154:8080/futureloan/mvc/api/member/list</t>
+    <t>http://120.79.176.157:8080/futureloan/mvc/api/member/list</t>
   </si>
   <si>
     <t>获取用户列表成功</t>
   </si>
   <si>
-    <t>获取用户所有投资记录</t>
+    <t>获取用户流水记录</t>
   </si>
   <si>
     <t>getInvestsByMemberId</t>
   </si>
   <si>
-    <t>http://119.23.241.154:8080/futureloan/mvc/api/invest/getInvestsByMemberId</t>
-  </si>
-  <si>
-    <t>{'mobileId':'$user_id'}</t>
+    <t>http://120.79.176.157:8080/futureloan/mvc/api/financelog/getFinanceLogList</t>
+  </si>
+  <si>
+    <t>{'memberId':'$user_id'}</t>
+  </si>
+  <si>
+    <t>{"status":1,"code":"10001","data":[],"msg":"获取用户流水记录成功！"}</t>
   </si>
   <si>
     <t>key</t>
@@ -335,7 +338,7 @@
     <t>$init_phone</t>
   </si>
   <si>
-    <t>18301565752</t>
+    <t>18301565776</t>
   </si>
   <si>
     <t>$phone</t>
@@ -349,354 +352,354 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ " numFmtId="164"/>
+    <numFmt formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ " numFmtId="165"/>
+    <numFmt formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ " numFmtId="166"/>
+    <numFmt formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ " numFmtId="167"/>
   </numFmts>
   <fonts count="20">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -707,17 +710,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -755,16 +747,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -779,16 +771,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -807,131 +799,137 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="7"/>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="5"/>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="3"/>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="8"/>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1"/>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="164"/>
+    <xf borderId="0" fillId="17" fontId="3" numFmtId="0"/>
+    <xf borderId="2" fillId="12" fontId="8" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="165"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="166"/>
+    <xf borderId="0" fillId="5" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="6" fontId="5" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="167"/>
+    <xf borderId="0" fillId="11" fontId="6" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0"/>
+    <xf borderId="4" fillId="18" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="20" fontId="6" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0"/>
+    <xf borderId="1" fillId="0" fontId="15" numFmtId="0"/>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="10" fontId="6" numFmtId="0"/>
+    <xf borderId="3" fillId="0" fontId="4" numFmtId="0"/>
+    <xf borderId="0" fillId="9" fontId="6" numFmtId="0"/>
+    <xf borderId="6" fillId="25" fontId="16" numFmtId="0"/>
+    <xf borderId="2" fillId="25" fontId="17" numFmtId="0"/>
+    <xf borderId="7" fillId="30" fontId="18" numFmtId="0"/>
+    <xf borderId="0" fillId="16" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="24" fontId="6" numFmtId="0"/>
+    <xf borderId="5" fillId="0" fontId="11" numFmtId="0"/>
+    <xf borderId="8" fillId="0" fontId="19" numFmtId="0"/>
+    <xf borderId="0" fillId="15" fontId="9" numFmtId="0"/>
+    <xf borderId="0" fillId="8" fontId="7" numFmtId="0"/>
+    <xf borderId="0" fillId="27" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="23" fontId="6" numFmtId="0"/>
+    <xf borderId="0" fillId="14" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="4" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="26" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="29" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="32" fontId="6" numFmtId="0"/>
+    <xf borderId="0" fillId="22" fontId="6" numFmtId="0"/>
+    <xf borderId="0" fillId="13" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="21" fontId="6" numFmtId="0"/>
+    <xf borderId="0" fillId="28" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="19" fontId="6" numFmtId="0"/>
+    <xf borderId="0" fillId="31" fontId="6" numFmtId="0"/>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="7" fontId="6" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="6">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="10"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle builtinId="7" name="货币[0]" xfId="1"/>
+    <cellStyle builtinId="38" name="20% - 强调文字颜色 3" xfId="2"/>
+    <cellStyle builtinId="20" name="输入" xfId="3"/>
+    <cellStyle builtinId="4" name="货币" xfId="4"/>
+    <cellStyle builtinId="6" name="千位分隔[0]" xfId="5"/>
+    <cellStyle builtinId="39" name="40% - 强调文字颜色 3" xfId="6"/>
+    <cellStyle builtinId="27" name="差" xfId="7"/>
+    <cellStyle builtinId="3" name="千位分隔" xfId="8"/>
+    <cellStyle builtinId="40" name="60% - 强调文字颜色 3" xfId="9"/>
+    <cellStyle builtinId="8" name="超链接" xfId="10"/>
+    <cellStyle builtinId="5" name="百分比" xfId="11"/>
+    <cellStyle builtinId="9" name="已访问的超链接" xfId="12"/>
+    <cellStyle builtinId="10" name="注释" xfId="13"/>
+    <cellStyle builtinId="36" name="60% - 强调文字颜色 2" xfId="14"/>
+    <cellStyle builtinId="19" name="标题 4" xfId="15"/>
+    <cellStyle builtinId="11" name="警告文本" xfId="16"/>
+    <cellStyle builtinId="15" name="标题" xfId="17"/>
+    <cellStyle builtinId="53" name="解释性文本" xfId="18"/>
+    <cellStyle builtinId="16" name="标题 1" xfId="19"/>
+    <cellStyle builtinId="17" name="标题 2" xfId="20"/>
+    <cellStyle builtinId="32" name="60% - 强调文字颜色 1" xfId="21"/>
+    <cellStyle builtinId="18" name="标题 3" xfId="22"/>
+    <cellStyle builtinId="44" name="60% - 强调文字颜色 4" xfId="23"/>
+    <cellStyle builtinId="21" name="输出" xfId="24"/>
+    <cellStyle builtinId="22" name="计算" xfId="25"/>
+    <cellStyle builtinId="23" name="检查单元格" xfId="26"/>
+    <cellStyle builtinId="50" name="20% - 强调文字颜色 6" xfId="27"/>
+    <cellStyle builtinId="33" name="强调文字颜色 2" xfId="28"/>
+    <cellStyle builtinId="24" name="链接单元格" xfId="29"/>
+    <cellStyle builtinId="25" name="汇总" xfId="30"/>
+    <cellStyle builtinId="26" name="好" xfId="31"/>
+    <cellStyle builtinId="28" name="适中" xfId="32"/>
+    <cellStyle builtinId="46" name="20% - 强调文字颜色 5" xfId="33"/>
+    <cellStyle builtinId="29" name="强调文字颜色 1" xfId="34"/>
+    <cellStyle builtinId="30" name="20% - 强调文字颜色 1" xfId="35"/>
+    <cellStyle builtinId="31" name="40% - 强调文字颜色 1" xfId="36"/>
+    <cellStyle builtinId="34" name="20% - 强调文字颜色 2" xfId="37"/>
+    <cellStyle builtinId="35" name="40% - 强调文字颜色 2" xfId="38"/>
+    <cellStyle builtinId="37" name="强调文字颜色 3" xfId="39"/>
+    <cellStyle builtinId="41" name="强调文字颜色 4" xfId="40"/>
+    <cellStyle builtinId="42" name="20% - 强调文字颜色 4" xfId="41"/>
+    <cellStyle builtinId="43" name="40% - 强调文字颜色 4" xfId="42"/>
+    <cellStyle builtinId="45" name="强调文字颜色 5" xfId="43"/>
+    <cellStyle builtinId="47" name="40% - 强调文字颜色 5" xfId="44"/>
+    <cellStyle builtinId="48" name="60% - 强调文字颜色 5" xfId="45"/>
+    <cellStyle builtinId="49" name="强调文字颜色 6" xfId="46"/>
+    <cellStyle builtinId="51" name="40% - 强调文字颜色 6" xfId="47"/>
+    <cellStyle builtinId="52" name="60% - 强调文字颜色 6" xfId="48"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -1191,27 +1189,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H5" sqref="A1:J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="9" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.25" style="2" customWidth="1"/>
-    <col min="3" max="3" width="26.25" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="27" style="2" customWidth="1"/>
-    <col min="7" max="7" width="33.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="33" style="2" customWidth="1"/>
-    <col min="9" max="9" width="9" style="2" customWidth="1"/>
-    <col min="10" max="10" width="15.375" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="2" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="2" width="9"/>
+    <col customWidth="1" max="2" min="2" style="2" width="16.25"/>
+    <col customWidth="1" max="3" min="3" style="2" width="26.25"/>
+    <col customWidth="1" max="4" min="4" style="2" width="18.375"/>
+    <col customWidth="1" max="5" min="5" style="2" width="15.875"/>
+    <col customWidth="1" max="6" min="6" style="2" width="27"/>
+    <col customWidth="1" max="7" min="7" style="2" width="33.5"/>
+    <col customWidth="1" max="8" min="8" style="2" width="33"/>
+    <col customWidth="1" max="9" min="9" style="2" width="9"/>
+    <col customWidth="1" max="10" min="10" style="2" width="30.125"/>
+    <col customWidth="1" max="16384" min="11" style="2" width="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1246,8 +1247,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" ht="40.5" customHeight="1" spans="1:9">
-      <c r="A2" s="2">
+    <row customHeight="1" ht="40.5" r="2" s="1" spans="1:10">
+      <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1271,12 +1272,12 @@
       <c r="H2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="2" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="3" ht="40.5" customHeight="1" spans="1:9">
-      <c r="A3" s="2">
+    <row customHeight="1" ht="40.5" r="3" s="1" spans="1:10">
+      <c r="A3" s="2" t="n">
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -1297,12 +1298,12 @@
       <c r="H3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="2" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="4" ht="40.5" customHeight="1" spans="1:9">
-      <c r="A4" s="2">
+    <row customHeight="1" ht="40.5" r="4" s="1" spans="1:10">
+      <c r="A4" s="2" t="n">
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -1323,12 +1324,12 @@
       <c r="H4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="2" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="5" ht="40.5" customHeight="1" spans="1:9">
-      <c r="A5" s="2">
+    <row customHeight="1" ht="40.5" r="5" s="1" spans="1:10">
+      <c r="A5" s="2" t="n">
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1349,12 +1350,12 @@
       <c r="H5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="2" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="6" ht="40.5" customHeight="1" spans="1:9">
-      <c r="A6" s="2">
+    <row customHeight="1" ht="40.5" r="6" s="1" spans="1:10">
+      <c r="A6" s="2" t="n">
         <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1375,12 +1376,12 @@
       <c r="H6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="2" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="7" ht="40.5" customHeight="1" spans="1:9">
-      <c r="A7" s="2">
+    <row customHeight="1" ht="40.5" r="7" s="1" spans="1:10">
+      <c r="A7" s="2" t="n">
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -1401,12 +1402,12 @@
       <c r="H7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="2" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="8" ht="40.5" customHeight="1" spans="1:9">
-      <c r="A8" s="2">
+    <row customHeight="1" ht="40.5" r="8" s="1" spans="1:10">
+      <c r="A8" s="2" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -1430,12 +1431,12 @@
       <c r="H8" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="2" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="9" ht="40.5" customHeight="1" spans="1:9">
-      <c r="A9" s="2">
+    <row customHeight="1" ht="40.5" r="9" s="1" spans="1:10">
+      <c r="A9" s="2" t="n">
         <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -1456,12 +1457,12 @@
       <c r="H9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="2" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="10" ht="40.5" customHeight="1" spans="1:9">
-      <c r="A10" s="2">
+    <row customHeight="1" ht="40.5" r="10" s="1" spans="1:10">
+      <c r="A10" s="2" t="n">
         <v>9</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -1482,12 +1483,12 @@
       <c r="H10" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="2" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="11" ht="40.5" customHeight="1" spans="1:9">
-      <c r="A11" s="2">
+    <row customHeight="1" ht="40.5" r="11" s="1" spans="1:10">
+      <c r="A11" s="2" t="n">
         <v>10</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -1508,12 +1509,12 @@
       <c r="H11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="2" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="12" ht="40.5" customHeight="1" spans="1:10">
-      <c r="A12" s="2">
+    <row customHeight="1" ht="40.5" r="12" s="1" spans="1:10">
+      <c r="A12" s="2" t="n">
         <v>11</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1534,44 +1535,44 @@
       <c r="H12" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J12" s="5" t="s">
+    </row>
+    <row customHeight="1" ht="40.5" r="13" s="1" spans="1:10">
+      <c r="A13" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="13" ht="40.5" customHeight="1" spans="1:9">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="G13" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="H13" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="I13" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="I13" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" ht="40.5" customHeight="1" spans="1:9">
-      <c r="A14" s="2">
+    </row>
+    <row customHeight="1" ht="40.5" r="14" s="1" spans="1:10">
+      <c r="A14" s="2" t="n">
         <v>13</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -1581,10 +1582,10 @@
         <v>62</v>
       </c>
       <c r="E14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>63</v>
@@ -1592,12 +1593,12 @@
       <c r="H14" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="2" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="15" ht="40.5" customHeight="1" spans="1:9">
-      <c r="A15" s="2">
+    <row customHeight="1" ht="40.5" r="15" s="1" spans="1:10">
+      <c r="A15" s="2" t="n">
         <v>14</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1607,10 +1608,10 @@
         <v>65</v>
       </c>
       <c r="E15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>66</v>
@@ -1618,12 +1619,12 @@
       <c r="H15" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15" s="2" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="16" ht="40.5" customHeight="1" spans="1:9">
-      <c r="A16" s="2">
+    <row customHeight="1" ht="40.5" r="16" s="1" spans="1:10">
+      <c r="A16" s="2" t="n">
         <v>15</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -1633,10 +1634,10 @@
         <v>69</v>
       </c>
       <c r="E16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>70</v>
@@ -1644,12 +1645,12 @@
       <c r="H16" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16" s="2" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="17" ht="40.5" customHeight="1" spans="1:9">
-      <c r="A17" s="2">
+    <row customHeight="1" ht="40.5" r="17" s="1" spans="1:10">
+      <c r="A17" s="2" t="n">
         <v>16</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -1659,10 +1660,10 @@
         <v>69</v>
       </c>
       <c r="E17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>73</v>
@@ -1670,12 +1671,12 @@
       <c r="H17" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17" s="2" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="18" ht="40.5" customHeight="1" spans="1:9">
-      <c r="A18" s="2">
+    <row customHeight="1" ht="40.5" r="18" s="1" spans="1:10">
+      <c r="A18" s="2" t="n">
         <v>17</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -1685,10 +1686,10 @@
         <v>69</v>
       </c>
       <c r="E18" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>76</v>
@@ -1696,12 +1697,12 @@
       <c r="H18" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18" s="2" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="19" ht="40.5" customHeight="1" spans="1:9">
-      <c r="A19" s="2">
+    <row customHeight="1" ht="40.5" r="19" s="1" spans="1:10">
+      <c r="A19" s="2" t="n">
         <v>18</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -1711,10 +1712,10 @@
         <v>79</v>
       </c>
       <c r="E19" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>80</v>
@@ -1722,12 +1723,12 @@
       <c r="H19" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I19" s="2" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="20" ht="40.5" customHeight="1" spans="1:9">
-      <c r="A20" s="2">
+    <row customHeight="1" ht="40.5" r="20" s="1" spans="1:10">
+      <c r="A20" s="2" t="n">
         <v>19</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -1737,10 +1738,10 @@
         <v>83</v>
       </c>
       <c r="E20" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>84</v>
@@ -1748,12 +1749,12 @@
       <c r="H20" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I20" s="2" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="21" ht="40.5" customHeight="1" spans="1:9">
-      <c r="A21" s="2">
+    <row customHeight="1" ht="40.5" r="21" s="1" spans="1:10">
+      <c r="A21" s="2" t="n">
         <v>20</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -1763,10 +1764,10 @@
         <v>86</v>
       </c>
       <c r="E21" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>87</v>
@@ -1774,12 +1775,12 @@
       <c r="H21" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="I21" s="2">
+      <c r="I21" s="2" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="22" ht="40.5" customHeight="1" spans="1:9">
-      <c r="A22" s="2">
+    <row customHeight="1" ht="40.5" r="22" s="1" spans="1:10">
+      <c r="A22" s="2" t="n">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -1792,23 +1793,23 @@
         <v>91</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>92</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="I22" s="2">
+      <c r="I22" s="2" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="23" ht="40.5" customHeight="1" spans="1:9">
-      <c r="A23" s="2">
+    <row customHeight="1" ht="40.5" r="23" s="1" spans="1:10">
+      <c r="A23" s="2" t="n">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -1829,25 +1830,37 @@
       <c r="H23" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="I23" s="2">
+      <c r="I23" s="2" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="24" ht="40.5" spans="1:7">
-      <c r="A24" s="2">
+    <row customHeight="1" ht="40.5" r="24" s="1" spans="1:10">
+      <c r="A24" s="2" t="n">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>99</v>
       </c>
+      <c r="C24" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="D24" s="2" t="s">
         <v>100</v>
       </c>
+      <c r="E24" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="F24" s="2" t="s">
         <v>101</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>102</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I24" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1857,71 +1870,73 @@
     <mergeCell ref="B13:B21"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" display="http://119.23.241.154:8080/futureloan/mvc/api/member/register" tooltip="http://119.23.241.154:8080/futureloan/mvc/api/member/register"/>
-    <hyperlink ref="F3" r:id="rId1" display="http://119.23.241.154:8080/futureloan/mvc/api/member/register" tooltip="http://119.23.241.154:8080/futureloan/mvc/api/member/register"/>
-    <hyperlink ref="F4" r:id="rId1" display="http://119.23.241.154:8080/futureloan/mvc/api/member/register" tooltip="http://119.23.241.154:8080/futureloan/mvc/api/member/register"/>
-    <hyperlink ref="F5" r:id="rId1" display="http://119.23.241.154:8080/futureloan/mvc/api/member/register" tooltip="http://119.23.241.154:8080/futureloan/mvc/api/member/register"/>
-    <hyperlink ref="F6" r:id="rId1" display="http://119.23.241.154:8080/futureloan/mvc/api/member/register" tooltip="http://119.23.241.154:8080/futureloan/mvc/api/member/register"/>
-    <hyperlink ref="F7" r:id="rId1" display="http://119.23.241.154:8080/futureloan/mvc/api/member/register" tooltip="http://119.23.241.154:8080/futureloan/mvc/api/member/register"/>
-    <hyperlink ref="F8" r:id="rId2" display="http://119.23.241.154:8080/futureloan/mvc/api/member/login"/>
-    <hyperlink ref="F9" r:id="rId2" display="http://119.23.241.154:8080/futureloan/mvc/api/member/login"/>
-    <hyperlink ref="F10" r:id="rId2" display="http://119.23.241.154:8080/futureloan/mvc/api/member/login"/>
-    <hyperlink ref="F11" r:id="rId2" display="http://119.23.241.154:8080/futureloan/mvc/api/member/login"/>
-    <hyperlink ref="F12" r:id="rId2" display="http://119.23.241.154:8080/futureloan/mvc/api/member/login" tooltip="http://119.23.241.154:8080/futureloan/mvc/api/member/login"/>
-    <hyperlink ref="F22" r:id="rId3" display="http://119.23.241.154:8080/futureloan/mvc/api/member/withdraw" tooltip="http://119.23.241.154:8080/futureloan/mvc/api/member/withdraw"/>
-    <hyperlink ref="F23" r:id="rId4" display="http://119.23.241.154:8080/futureloan/mvc/api/member/list" tooltip="http://119.23.241.154:8080/futureloan/mvc/api/member/list"/>
-    <hyperlink ref="F24" r:id="rId5" display="http://119.23.241.154:8080/futureloan/mvc/api/invest/getInvestsByMemberId" tooltip="http://119.23.241.154:8080/futureloan/mvc/api/invest/getInvestsByMemberId"/>
-    <hyperlink ref="F13" r:id="rId6" display="http://119.23.241.154:8080/futureloan/mvc/api/member/recharge"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://120.79.176.157:8080/futureloan/mvc/api/member/register" ref="F2" tooltip="http://120.79.176.157:8080:8080/futureloan/mvc/api/member/register" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://120.79.176.157:8080/futureloan/mvc/api/member/register" ref="F3" tooltip="http://119.23.241.154:8080/futureloan/mvc/api/member/register" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://120.79.176.157:8080/futureloan/mvc/api/member/register" ref="F4" tooltip="http://119.23.241.154:8080/futureloan/mvc/api/member/register" r:id="rId3"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://120.79.176.157:8080/futureloan/mvc/api/member/register" ref="F5" tooltip="http://119.23.241.154:8080/futureloan/mvc/api/member/register" r:id="rId4"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://120.79.176.157:8080/futureloan/mvc/api/member/register" ref="F6" tooltip="http://119.23.241.154:8080/futureloan/mvc/api/member/register" r:id="rId5"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://120.79.176.157:8080/futureloan/mvc/api/member/register" ref="F7" tooltip="http://119.23.241.154:8080/futureloan/mvc/api/member/register" r:id="rId6"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://120.79.176.157:8080/futureloan/mvc/api/member/login" ref="F8" r:id="rId7"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://120.79.176.157:8080/futureloan/mvc/api/member/login" ref="F9" r:id="rId8"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://120.79.176.157:8080/futureloan/mvc/api/member/login" ref="F10" r:id="rId9"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://120.79.176.157:8080/futureloan/mvc/api/member/login" ref="F11" r:id="rId10"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://120.79.176.157:8080/futureloan/mvc/api/member/login" ref="F12" tooltip="http://119.23.241.154:8080/futureloan/mvc/api/member/login" r:id="rId11"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://120.79.176.157:8080/futureloan/mvc/api/member/recharge" ref="F13" tooltip="http://119.23.241.154:8080/futureloan/mvc/api/member/recharge" r:id="rId12"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://120.79.176.157:8080/futureloan/mvc/api/member/recharge" ref="F17" r:id="rId13"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://120.79.176.157:8080/futureloan/mvc/api/member/withdraw" ref="F22" tooltip="http://119.23.241.154:8080/futureloan/mvc/api/member/withdraw" r:id="rId14"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://120.79.176.157:8080/futureloan/mvc/api/member/list" ref="F23" tooltip="http://119.23.241.154:8080/futureloan/mvc/api/member/list" r:id="rId15"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://120.79.176.157:8080/futureloan/mvc/api/financelog/getFinanceLogList" ref="F24" tooltip="http://119.23.241.154:8080/futureloan/mvc/api/financelog/getFinanceLogList" r:id="rId16"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <pageMargins bottom="1" footer="0.511805555555556" header="0.511805555555556" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" width="18.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.875" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="1" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="1" width="18.375"/>
+    <col customWidth="1" max="2" min="2" style="1" width="18.875"/>
+    <col customWidth="1" max="16384" min="3" style="1" width="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <pageMargins bottom="1" footer="0.511805555555556" header="0.511805555555556" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/python3_api_framework/TestDatas/api_qcd.xlsx
+++ b/python3_api_framework/TestDatas/api_qcd.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" windowHeight="10950" windowWidth="23280"/>
+    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="18000" windowWidth="28800" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="case_data" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="init_data" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="case_data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="init_data" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="144525" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -338,7 +338,7 @@
     <t>$init_phone</t>
   </si>
   <si>
-    <t>18301565776</t>
+    <t>18301565782</t>
   </si>
   <si>
     <t>$phone</t>
@@ -351,13 +351,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ " numFmtId="164"/>
-    <numFmt formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ " numFmtId="165"/>
-    <numFmt formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ " numFmtId="166"/>
-    <numFmt formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ " numFmtId="167"/>
-  </numFmts>
-  <fonts count="20">
+  <numFmts count="0"/>
+  <fonts count="4">
     <font>
       <name val="宋体"/>
       <charset val="134"/>
@@ -367,7 +362,8 @@
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <family val="3"/>
       <color rgb="FF0000FF"/>
       <sz val="11"/>
       <u val="single"/>
@@ -376,14 +372,7 @@
     <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <family val="3"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -391,320 +380,20 @@
     <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
+      <family val="3"/>
+      <sz val="9"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -712,157 +401,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="164"/>
-    <xf borderId="0" fillId="17" fontId="3" numFmtId="0"/>
-    <xf borderId="2" fillId="12" fontId="8" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="165"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="166"/>
-    <xf borderId="0" fillId="5" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="6" fontId="5" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="167"/>
-    <xf borderId="0" fillId="11" fontId="6" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0"/>
-    <xf borderId="4" fillId="18" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="20" fontId="6" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0"/>
-    <xf borderId="1" fillId="0" fontId="15" numFmtId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="10" fontId="6" numFmtId="0"/>
-    <xf borderId="3" fillId="0" fontId="4" numFmtId="0"/>
-    <xf borderId="0" fillId="9" fontId="6" numFmtId="0"/>
-    <xf borderId="6" fillId="25" fontId="16" numFmtId="0"/>
-    <xf borderId="2" fillId="25" fontId="17" numFmtId="0"/>
-    <xf borderId="7" fillId="30" fontId="18" numFmtId="0"/>
-    <xf borderId="0" fillId="16" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="24" fontId="6" numFmtId="0"/>
-    <xf borderId="5" fillId="0" fontId="11" numFmtId="0"/>
-    <xf borderId="8" fillId="0" fontId="19" numFmtId="0"/>
-    <xf borderId="0" fillId="15" fontId="9" numFmtId="0"/>
-    <xf borderId="0" fillId="8" fontId="7" numFmtId="0"/>
-    <xf borderId="0" fillId="27" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="23" fontId="6" numFmtId="0"/>
-    <xf borderId="0" fillId="14" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="26" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="29" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="32" fontId="6" numFmtId="0"/>
-    <xf borderId="0" fillId="22" fontId="6" numFmtId="0"/>
-    <xf borderId="0" fillId="13" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="21" fontId="6" numFmtId="0"/>
-    <xf borderId="0" fillId="28" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="19" fontId="6" numFmtId="0"/>
-    <xf borderId="0" fillId="31" fontId="6" numFmtId="0"/>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="7" fontId="6" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -870,64 +414,23 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="10"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle builtinId="0" name="常规" xfId="0"/>
-    <cellStyle builtinId="7" name="货币[0]" xfId="1"/>
-    <cellStyle builtinId="38" name="20% - 强调文字颜色 3" xfId="2"/>
-    <cellStyle builtinId="20" name="输入" xfId="3"/>
-    <cellStyle builtinId="4" name="货币" xfId="4"/>
-    <cellStyle builtinId="6" name="千位分隔[0]" xfId="5"/>
-    <cellStyle builtinId="39" name="40% - 强调文字颜色 3" xfId="6"/>
-    <cellStyle builtinId="27" name="差" xfId="7"/>
-    <cellStyle builtinId="3" name="千位分隔" xfId="8"/>
-    <cellStyle builtinId="40" name="60% - 强调文字颜色 3" xfId="9"/>
-    <cellStyle builtinId="8" name="超链接" xfId="10"/>
-    <cellStyle builtinId="5" name="百分比" xfId="11"/>
-    <cellStyle builtinId="9" name="已访问的超链接" xfId="12"/>
-    <cellStyle builtinId="10" name="注释" xfId="13"/>
-    <cellStyle builtinId="36" name="60% - 强调文字颜色 2" xfId="14"/>
-    <cellStyle builtinId="19" name="标题 4" xfId="15"/>
-    <cellStyle builtinId="11" name="警告文本" xfId="16"/>
-    <cellStyle builtinId="15" name="标题" xfId="17"/>
-    <cellStyle builtinId="53" name="解释性文本" xfId="18"/>
-    <cellStyle builtinId="16" name="标题 1" xfId="19"/>
-    <cellStyle builtinId="17" name="标题 2" xfId="20"/>
-    <cellStyle builtinId="32" name="60% - 强调文字颜色 1" xfId="21"/>
-    <cellStyle builtinId="18" name="标题 3" xfId="22"/>
-    <cellStyle builtinId="44" name="60% - 强调文字颜色 4" xfId="23"/>
-    <cellStyle builtinId="21" name="输出" xfId="24"/>
-    <cellStyle builtinId="22" name="计算" xfId="25"/>
-    <cellStyle builtinId="23" name="检查单元格" xfId="26"/>
-    <cellStyle builtinId="50" name="20% - 强调文字颜色 6" xfId="27"/>
-    <cellStyle builtinId="33" name="强调文字颜色 2" xfId="28"/>
-    <cellStyle builtinId="24" name="链接单元格" xfId="29"/>
-    <cellStyle builtinId="25" name="汇总" xfId="30"/>
-    <cellStyle builtinId="26" name="好" xfId="31"/>
-    <cellStyle builtinId="28" name="适中" xfId="32"/>
-    <cellStyle builtinId="46" name="20% - 强调文字颜色 5" xfId="33"/>
-    <cellStyle builtinId="29" name="强调文字颜色 1" xfId="34"/>
-    <cellStyle builtinId="30" name="20% - 强调文字颜色 1" xfId="35"/>
-    <cellStyle builtinId="31" name="40% - 强调文字颜色 1" xfId="36"/>
-    <cellStyle builtinId="34" name="20% - 强调文字颜色 2" xfId="37"/>
-    <cellStyle builtinId="35" name="40% - 强调文字颜色 2" xfId="38"/>
-    <cellStyle builtinId="37" name="强调文字颜色 3" xfId="39"/>
-    <cellStyle builtinId="41" name="强调文字颜色 4" xfId="40"/>
-    <cellStyle builtinId="42" name="20% - 强调文字颜色 4" xfId="41"/>
-    <cellStyle builtinId="43" name="40% - 强调文字颜色 4" xfId="42"/>
-    <cellStyle builtinId="45" name="强调文字颜色 5" xfId="43"/>
-    <cellStyle builtinId="47" name="40% - 强调文字颜色 5" xfId="44"/>
-    <cellStyle builtinId="48" name="60% - 强调文字颜色 5" xfId="45"/>
-    <cellStyle builtinId="49" name="强调文字颜色 6" xfId="46"/>
-    <cellStyle builtinId="51" name="40% - 强调文字颜色 6" xfId="47"/>
-    <cellStyle builtinId="52" name="60% - 强调文字颜色 6" xfId="48"/>
+    <cellStyle builtinId="8" name="超链接" xfId="1"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
@@ -1185,681 +688,683 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H5" sqref="A1:J24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="2" width="9"/>
-    <col customWidth="1" max="2" min="2" style="2" width="16.25"/>
-    <col customWidth="1" max="3" min="3" style="2" width="26.25"/>
-    <col customWidth="1" max="4" min="4" style="2" width="18.375"/>
-    <col customWidth="1" max="5" min="5" style="2" width="15.875"/>
-    <col customWidth="1" max="6" min="6" style="2" width="27"/>
-    <col customWidth="1" max="7" min="7" style="2" width="33.5"/>
-    <col customWidth="1" max="8" min="8" style="2" width="33"/>
-    <col customWidth="1" max="9" min="9" style="2" width="9"/>
-    <col customWidth="1" max="10" min="10" style="2" width="30.125"/>
-    <col customWidth="1" max="16384" min="11" style="2" width="9"/>
+    <col customWidth="1" max="1" min="1" style="5" width="9"/>
+    <col customWidth="1" max="2" min="2" style="5" width="16.1640625"/>
+    <col customWidth="1" max="3" min="3" style="5" width="26.1640625"/>
+    <col customWidth="1" max="4" min="4" style="5" width="18.33203125"/>
+    <col customWidth="1" max="5" min="5" style="5" width="15.83203125"/>
+    <col customWidth="1" max="6" min="6" style="5" width="27"/>
+    <col customWidth="1" max="7" min="7" style="5" width="33.5"/>
+    <col customWidth="1" max="8" min="8" style="5" width="33"/>
+    <col customWidth="1" max="9" min="9" style="5" width="9"/>
+    <col customWidth="1" max="10" min="10" style="5" width="30.1640625"/>
+    <col customWidth="1" max="11" min="11" style="5" width="9"/>
+    <col customWidth="1" max="16384" min="12" style="5" width="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row customHeight="1" ht="40.5" r="2" s="1" spans="1:10">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="2" t="n">
+      <c r="I2" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="40.5" r="3" s="1" spans="1:10">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="2" t="n">
+      <c r="I3" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="40.5" r="4" s="1" spans="1:10">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="2" t="n">
+      <c r="I4" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="40.5" r="5" s="1" spans="1:10">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="2" t="n">
+      <c r="I5" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="40.5" r="6" s="1" spans="1:10">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="2" t="n">
+      <c r="I6" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="40.5" r="7" s="1" spans="1:10">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="2" t="n">
+      <c r="I7" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="40.5" r="8" s="1" spans="1:10">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I8" s="2" t="n">
+      <c r="I8" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="40.5" r="9" s="1" spans="1:10">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I9" s="2" t="n">
+      <c r="I9" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="40.5" r="10" s="1" spans="1:10">
-      <c r="A10" s="2" t="n">
+      <c r="A10" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I10" s="2" t="n">
+      <c r="I10" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="40.5" r="11" s="1" spans="1:10">
-      <c r="A11" s="2" t="n">
+      <c r="A11" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I11" s="2" t="n">
+      <c r="I11" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="40.5" r="12" s="1" spans="1:10">
-      <c r="A12" s="2" t="n">
+      <c r="A12" s="5" t="n">
         <v>11</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="I12" s="2" t="n">
+      <c r="I12" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="40.5" r="13" s="1" spans="1:10">
-      <c r="A13" s="2" t="n">
+      <c r="A13" s="5" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="I13" s="2" t="n">
+      <c r="I13" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J13" s="5" t="s">
+      <c r="J13" s="6" t="s">
         <v>60</v>
       </c>
     </row>
     <row customHeight="1" ht="40.5" r="14" s="1" spans="1:10">
-      <c r="A14" s="2" t="n">
+      <c r="A14" s="5" t="n">
         <v>13</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I14" s="2" t="n">
+      <c r="I14" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="40.5" r="15" s="1" spans="1:10">
-      <c r="A15" s="2" t="n">
+      <c r="A15" s="5" t="n">
         <v>14</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="H15" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="I15" s="2" t="n">
+      <c r="I15" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="40.5" r="16" s="1" spans="1:10">
-      <c r="A16" s="2" t="n">
+      <c r="A16" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="H16" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="I16" s="2" t="n">
+      <c r="I16" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row customHeight="1" ht="40.5" r="17" s="1" spans="1:10">
-      <c r="A17" s="2" t="n">
+      <c r="A17" s="5" t="n">
         <v>16</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="H17" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="I17" s="2" t="n">
+      <c r="I17" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row customHeight="1" ht="40.5" r="18" s="1" spans="1:10">
-      <c r="A18" s="2" t="n">
+      <c r="A18" s="5" t="n">
         <v>17</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="H18" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="I18" s="2" t="n">
+      <c r="I18" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="40.5" r="19" s="1" spans="1:10">
-      <c r="A19" s="2" t="n">
+      <c r="A19" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G19" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="H19" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="I19" s="2" t="n">
+      <c r="I19" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="40.5" r="20" s="1" spans="1:10">
-      <c r="A20" s="2" t="n">
+      <c r="A20" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G20" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="H20" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="I20" s="2" t="n">
+      <c r="I20" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="40.5" r="21" s="1" spans="1:10">
-      <c r="A21" s="2" t="n">
+      <c r="A21" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="G21" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="H21" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="I21" s="2" t="n">
+      <c r="I21" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="40.5" r="22" s="1" spans="1:10">
-      <c r="A22" s="2" t="n">
+      <c r="A22" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F22" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="G22" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="H22" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="I22" s="2" t="n">
+      <c r="I22" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="40.5" r="23" s="1" spans="1:10">
-      <c r="A23" s="2" t="n">
+      <c r="A23" s="5" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F23" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="H23" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="I23" s="2" t="n">
+      <c r="I23" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row customHeight="1" ht="40.5" r="24" s="1" spans="1:10">
-      <c r="A24" s="2" t="n">
+      <c r="A24" s="5" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F24" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="G24" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="H24" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="I24" s="2" t="n">
+      <c r="I24" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1870,22 +1375,22 @@
     <mergeCell ref="B13:B21"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://120.79.176.157:8080/futureloan/mvc/api/member/register" ref="F2" tooltip="http://120.79.176.157:8080:8080/futureloan/mvc/api/member/register" r:id="rId1"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://120.79.176.157:8080/futureloan/mvc/api/member/register" ref="F3" tooltip="http://119.23.241.154:8080/futureloan/mvc/api/member/register" r:id="rId2"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://120.79.176.157:8080/futureloan/mvc/api/member/register" ref="F4" tooltip="http://119.23.241.154:8080/futureloan/mvc/api/member/register" r:id="rId3"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://120.79.176.157:8080/futureloan/mvc/api/member/register" ref="F5" tooltip="http://119.23.241.154:8080/futureloan/mvc/api/member/register" r:id="rId4"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://120.79.176.157:8080/futureloan/mvc/api/member/register" ref="F6" tooltip="http://119.23.241.154:8080/futureloan/mvc/api/member/register" r:id="rId5"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://120.79.176.157:8080/futureloan/mvc/api/member/register" ref="F7" tooltip="http://119.23.241.154:8080/futureloan/mvc/api/member/register" r:id="rId6"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://120.79.176.157:8080/futureloan/mvc/api/member/login" ref="F8" r:id="rId7"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://120.79.176.157:8080/futureloan/mvc/api/member/login" ref="F9" r:id="rId8"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://120.79.176.157:8080/futureloan/mvc/api/member/login" ref="F10" r:id="rId9"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://120.79.176.157:8080/futureloan/mvc/api/member/login" ref="F11" r:id="rId10"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://120.79.176.157:8080/futureloan/mvc/api/member/login" ref="F12" tooltip="http://119.23.241.154:8080/futureloan/mvc/api/member/login" r:id="rId11"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://120.79.176.157:8080/futureloan/mvc/api/member/recharge" ref="F13" tooltip="http://119.23.241.154:8080/futureloan/mvc/api/member/recharge" r:id="rId12"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://120.79.176.157:8080/futureloan/mvc/api/member/recharge" ref="F17" r:id="rId13"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://120.79.176.157:8080/futureloan/mvc/api/member/withdraw" ref="F22" tooltip="http://119.23.241.154:8080/futureloan/mvc/api/member/withdraw" r:id="rId14"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://120.79.176.157:8080/futureloan/mvc/api/member/list" ref="F23" tooltip="http://119.23.241.154:8080/futureloan/mvc/api/member/list" r:id="rId15"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://120.79.176.157:8080/futureloan/mvc/api/financelog/getFinanceLogList" ref="F24" tooltip="http://119.23.241.154:8080/futureloan/mvc/api/financelog/getFinanceLogList" r:id="rId16"/>
+    <hyperlink ref="F2" tooltip="http://120.79.176.157:8080:8080/futureloan/mvc/api/member/register" r:id="rId1"/>
+    <hyperlink ref="F3" tooltip="http://119.23.241.154:8080/futureloan/mvc/api/member/register" r:id="rId2"/>
+    <hyperlink ref="F4" tooltip="http://119.23.241.154:8080/futureloan/mvc/api/member/register" r:id="rId3"/>
+    <hyperlink ref="F5" tooltip="http://119.23.241.154:8080/futureloan/mvc/api/member/register" r:id="rId4"/>
+    <hyperlink ref="F6" tooltip="http://119.23.241.154:8080/futureloan/mvc/api/member/register" r:id="rId5"/>
+    <hyperlink ref="F7" tooltip="http://119.23.241.154:8080/futureloan/mvc/api/member/register" r:id="rId6"/>
+    <hyperlink ref="F8" r:id="rId7"/>
+    <hyperlink ref="F9" r:id="rId8"/>
+    <hyperlink ref="F10" r:id="rId9"/>
+    <hyperlink ref="F11" r:id="rId10"/>
+    <hyperlink ref="F12" tooltip="http://119.23.241.154:8080/futureloan/mvc/api/member/login" r:id="rId11"/>
+    <hyperlink ref="F13" tooltip="http://119.23.241.154:8080/futureloan/mvc/api/member/recharge" r:id="rId12"/>
+    <hyperlink ref="F17" r:id="rId13"/>
+    <hyperlink ref="F22" tooltip="http://119.23.241.154:8080/futureloan/mvc/api/member/withdraw" r:id="rId14"/>
+    <hyperlink ref="F23" tooltip="http://119.23.241.154:8080/futureloan/mvc/api/member/list" r:id="rId15"/>
+    <hyperlink ref="F24" tooltip="http://119.23.241.154:8080/futureloan/mvc/api/financelog/getFinanceLogList" r:id="rId16"/>
   </hyperlinks>
   <pageMargins bottom="1" footer="0.511805555555556" header="0.511805555555556" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -1899,15 +1404,16 @@
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0" outlineLevelRow="3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="1" width="18.375"/>
-    <col customWidth="1" max="2" min="2" style="1" width="18.875"/>
-    <col customWidth="1" max="16384" min="3" style="1" width="9"/>
+    <col customWidth="1" max="1" min="1" style="1" width="18.33203125"/>
+    <col customWidth="1" max="2" min="2" style="1" width="18.83203125"/>
+    <col customWidth="1" max="3" min="3" style="1" width="9"/>
+    <col customWidth="1" max="16384" min="4" style="1" width="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
